--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77139.57064676037</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77139.57064676037</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958283722.4238863</v>
+        <v>35119120.44269422</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9986.108429710019</v>
+        <v>803748.791185834</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19375.01941332144</v>
+        <v>1505571.041305852</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28777.07956600587</v>
+        <v>2207393.291425871</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38370.43339321107</v>
+        <v>2908512.1178951</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47963.78722041625</v>
+        <v>3609630.944364329</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57557.13809730368</v>
+        <v>4310749.770833557</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67150.49192450884</v>
+        <v>5011868.597302782</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76743.8428013963</v>
+        <v>5712987.423772008</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86337.19662860149</v>
+        <v>6414106.250241233</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95930.55045580668</v>
+        <v>7115225.076710459</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105523.9042830119</v>
+        <v>7816343.903179684</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115117.2050622993</v>
+        <v>8517462.729648914</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124710.5588895045</v>
+        <v>9218581.556118149</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>134303.9127167096</v>
+        <v>9919700.382587384</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143897.2665439149</v>
+        <v>10620819.20905662</v>
       </c>
     </row>
   </sheetData>
